--- a/storage/excels/nta.xlsx
+++ b/storage/excels/nta.xlsx
@@ -750,7 +750,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -778,11 +778,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -840,7 +835,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,26 +858,26 @@
   </sheetPr>
   <dimension ref="1:97"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,7 +2192,7 @@
         <v>74</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>77</v>
@@ -2241,7 +2236,7 @@
         <v>74</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>77</v>
@@ -2285,7 +2280,7 @@
         <v>74</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>77</v>
@@ -2329,7 +2324,7 @@
         <v>74</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>77</v>
@@ -2373,10 +2368,10 @@
         <v>74</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>93</v>
@@ -2417,10 +2412,10 @@
         <v>74</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>93</v>
@@ -2461,10 +2456,10 @@
         <v>74</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>93</v>
@@ -2505,10 +2500,10 @@
         <v>74</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="N37" s="0" t="s">
         <v>93</v>
@@ -2549,10 +2544,10 @@
         <v>74</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>103</v>
@@ -2593,10 +2588,10 @@
         <v>74</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>103</v>
@@ -2637,10 +2632,10 @@
         <v>74</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>103</v>
@@ -2681,10 +2676,10 @@
         <v>74</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>103</v>
@@ -2725,10 +2720,10 @@
         <v>74</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>112</v>
@@ -2769,10 +2764,10 @@
         <v>74</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>112</v>
@@ -2813,10 +2808,10 @@
         <v>117</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>112</v>
@@ -2857,10 +2852,10 @@
         <v>117</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N45" s="0" t="s">
         <v>112</v>
@@ -3253,10 +3248,10 @@
         <v>117</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N54" s="0" t="s">
         <v>141</v>
@@ -3297,10 +3292,10 @@
         <v>117</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N55" s="0" t="s">
         <v>141</v>
@@ -3341,10 +3336,10 @@
         <v>117</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N56" s="0" t="s">
         <v>141</v>
@@ -3385,10 +3380,10 @@
         <v>117</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N57" s="0" t="s">
         <v>141</v>
@@ -3429,10 +3424,10 @@
         <v>117</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N58" s="0" t="s">
         <v>150</v>
@@ -3473,10 +3468,10 @@
         <v>117</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N59" s="0" t="s">
         <v>150</v>
@@ -3517,10 +3512,10 @@
         <v>117</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>150</v>
@@ -3561,10 +3556,10 @@
         <v>117</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M61" s="0" t="n">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N61" s="0" t="s">
         <v>150</v>
@@ -3957,10 +3952,10 @@
         <v>18</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M70" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N70" s="0" t="s">
         <v>178</v>
@@ -4001,10 +3996,10 @@
         <v>18</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M71" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N71" s="0" t="s">
         <v>178</v>
@@ -4045,10 +4040,10 @@
         <v>18</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M72" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N72" s="0" t="s">
         <v>178</v>
@@ -4089,10 +4084,10 @@
         <v>18</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M73" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N73" s="0" t="s">
         <v>178</v>
@@ -4133,10 +4128,10 @@
         <v>18</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M74" s="0" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N74" s="0" t="s">
         <v>187</v>
@@ -4177,10 +4172,10 @@
         <v>18</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M75" s="0" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N75" s="0" t="s">
         <v>187</v>
@@ -4221,10 +4216,10 @@
         <v>74</v>
       </c>
       <c r="L76" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M76" s="0" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N76" s="0" t="s">
         <v>187</v>
@@ -4265,10 +4260,10 @@
         <v>74</v>
       </c>
       <c r="L77" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M77" s="0" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N77" s="0" t="s">
         <v>187</v>
@@ -4309,10 +4304,10 @@
         <v>74</v>
       </c>
       <c r="L78" s="0" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M78" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N78" s="0" t="s">
         <v>196</v>
@@ -4353,10 +4348,10 @@
         <v>74</v>
       </c>
       <c r="L79" s="0" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M79" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N79" s="0" t="s">
         <v>196</v>
@@ -4397,10 +4392,10 @@
         <v>74</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M80" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N80" s="0" t="s">
         <v>196</v>
@@ -4441,10 +4436,10 @@
         <v>74</v>
       </c>
       <c r="L81" s="0" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M81" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N81" s="0" t="s">
         <v>196</v>
